--- a/Tugas1/Metnum_Irgiyansyah_T1.xlsx
+++ b/Tugas1/Metnum_Irgiyansyah_T1.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Zoom 2" sheetId="3" r:id="rId3"/>
     <sheet name="Zoom 3" sheetId="4" r:id="rId4"/>
     <sheet name="Zoom 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -58,23 +58,26 @@
     <t>f(b)</t>
   </si>
   <si>
-    <t xml:space="preserve">finding root </t>
+    <t>Bisection</t>
   </si>
   <si>
-    <t>f(c)</t>
+    <t>Persamaan = 4,15*x^5-2,23*x^3-6,35</t>
   </si>
   <si>
-    <t>error</t>
+    <t>f(c )</t>
   </si>
   <si>
-    <t>eps</t>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Iterasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +93,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,12 +138,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -302,11 +342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1253142832"/>
-        <c:axId val="1253133040"/>
+        <c:axId val="-52899424"/>
+        <c:axId val="-52898880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1253142832"/>
+        <c:axId val="-52899424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253133040"/>
+        <c:crossAx val="-52898880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -357,7 +397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253133040"/>
+        <c:axId val="-52898880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253142832"/>
+        <c:crossAx val="-52899424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -623,11 +663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1253144464"/>
-        <c:axId val="1253140112"/>
+        <c:axId val="-52893984"/>
+        <c:axId val="-52897792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1253144464"/>
+        <c:axId val="-52893984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,7 +710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253140112"/>
+        <c:crossAx val="-52897792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -678,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253140112"/>
+        <c:axId val="-52897792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253144464"/>
+        <c:crossAx val="-52893984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1253138480"/>
-        <c:axId val="1253148272"/>
+        <c:axId val="-52892896"/>
+        <c:axId val="-116635120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1253138480"/>
+        <c:axId val="-52892896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253148272"/>
+        <c:crossAx val="-116635120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253148272"/>
+        <c:axId val="-116635120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253138480"/>
+        <c:crossAx val="-52892896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,6 +1154,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,11 +1305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1253133584"/>
-        <c:axId val="1253134128"/>
+        <c:axId val="-1966988816"/>
+        <c:axId val="-1966978480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1253133584"/>
+        <c:axId val="-1966988816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253134128"/>
+        <c:crossAx val="-1966978480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1319,7 +1360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253134128"/>
+        <c:axId val="-1966978480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253133584"/>
+        <c:crossAx val="-1966988816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1585,11 +1626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1253142288"/>
-        <c:axId val="1253143376"/>
+        <c:axId val="-1966983376"/>
+        <c:axId val="-1966984464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1253142288"/>
+        <c:axId val="-1966983376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253143376"/>
+        <c:crossAx val="-1966984464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1253143376"/>
+        <c:axId val="-1966984464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1253142288"/>
+        <c:crossAx val="-1966983376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,6 +1744,367 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-12696.350000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4113.2300000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-954.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-121.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>941.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4100.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-92267248"/>
+        <c:axId val="-1966981200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-92267248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1966981200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1966981200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-92267248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1940,6 +2342,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4167,6 +4609,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4695,6 +5640,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4961,50 +5941,52 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B11" si="0">4.15*A2^5-2.23*A2^3-6.35</f>
+        <f>4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-6.35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
+      <c r="B3" s="4">
+        <f t="shared" ref="B2:B11" si="0">4.15*A3^5-2.23*A3^3-6.35</f>
         <v>-4.43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>108.61000000000001</v>
       </c>
@@ -5073,8 +6055,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5086,33 +6069,33 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <f t="shared" ref="B2:B11" si="0">4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-2.6345134999999975</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1.2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <f t="shared" si="0"/>
         <v>0.12308800000000009</v>
       </c>
@@ -5200,16 +6183,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5286,19 +6269,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1.19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>-0.20453688141499882</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>1.2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>0.12308800000000009</v>
       </c>
@@ -5314,16 +6297,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5373,19 +6356,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1.196</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>-9.4711315498496873E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1.1970000000000001</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>2.3478804705895584E-2</v>
       </c>
@@ -5428,16 +6411,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5460,10 +6443,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>1.1962999999999999</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>4.0060455669177486E-4</v>
       </c>
@@ -5540,742 +6523,479 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f>4.15*A6^5-2.23*A6^3-6.35</f>
+        <v>-12696.350000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(F6+H6)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="I6" s="1">
+        <f>4.15*F6^5-2.23*F6^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:K6" si="0">4.15*G6^5-2.23*G6^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="K6" s="1">
+        <f>4.15*H6^5-2.23*H6^3-6.35</f>
+        <v>108.61000000000001</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>-4</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" ref="B7:B15" si="1">4.15*A7^5-2.23*A7^3-6.35</f>
+        <v>-4113.2300000000005</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>IF(I6*J6&lt;0,F6,G6)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f>(F7+H7)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(J6*K6&lt;0,H6,G6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>4.15*F7^5-2.23*F7^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J7" s="1">
+        <f>4.15*G7^5-2.23*G7^3-6.35</f>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="K7" s="1">
+        <f>4.15*H7^5-2.23*H7^3-6.35</f>
+        <v>17.637812500000003</v>
+      </c>
+      <c r="L7">
+        <f>ABS((G7-G6)/G7)</f>
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-954.59</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F15" si="2">IF(I7*J7&lt;0,F7,G7)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ref="G8:G15" si="3">(F8+H8)/2</f>
+        <v>1.125</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H15" si="4">IF(J7*K7&lt;0,H7,G7)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I15" si="5">4.15*F8^5-2.23*F8^3-6.35</f>
+        <v>-4.43</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J15" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K15" si="7">4.15*H8^5-2.23*H8^3-6.35</f>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="8">ABS((G8-G7)/G8)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:B16" si="9">4.15*A9^5-2.23*A9^3-6.35</f>
+        <v>-121.31</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>(A4+B4)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:F5" si="0">4.5*A4^5-2.23*A4^3-6.35</f>
-        <v>-4.08</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>119.81</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>20.295625000000001</v>
-      </c>
-      <c r="G4">
-        <f>B4-A4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF(G4&lt;=0.0001,"akar","belum")</f>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f>IF(D4*F4&gt;=0,C4,A4)</f>
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>IF(E4*F4&gt;=0,C4,B4)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C5">
-        <f>(A5+B5)/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-4.08</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>20.295625000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>3.0274414062500004</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G23" si="1">B5-A5</f>
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="str">
-        <f>IF(G5&lt;=0.0001,"akar","belum")</f>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" ref="A6:A7" si="2">IF(D5*F5&gt;=0,C5,A5)</f>
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ref="B6:B7" si="3">IF(E5*F5&gt;=0,C5,B5)</f>
-        <v>1.25</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C7" si="4">(A6+B6)/2</f>
-        <v>1.125</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D7" si="5">4.5*A6^5-2.23*A6^3-6.35</f>
-        <v>-4.08</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E7" si="6">4.5*B6^5-2.23*B6^3-6.35</f>
-        <v>3.0274414062500004</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F7" si="7">4.5*C6^5-2.23*C6^3-6.35</f>
-        <v>-1.4159906005859373</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ref="H5:H23" si="8">IF(G6&lt;=0.0001,"akar","belum")</f>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="F9" s="1">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="B7">
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="C7">
+      <c r="I9" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.04670196533203</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="9"/>
+        <v>-8.27</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1875</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.21875</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9593261718750021</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="9"/>
+        <v>-6.35</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="D7">
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.203125</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.21875</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="5"/>
-        <v>-1.4159906005859373</v>
-      </c>
-      <c r="E7">
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J11" s="1">
         <f t="shared" si="6"/>
-        <v>3.0274414062500004</v>
-      </c>
-      <c r="F7">
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="7"/>
-        <v>0.54199407577514691</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="H7" t="str">
+        <v>0.77198921948671462</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="8"/>
-        <v>belum</v>
+        <v>1.2987012987012988E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f>IF(D7*F7&gt;=0,C7,A7)</f>
-        <v>1.125</v>
-      </c>
-      <c r="B8">
-        <f>IF(E7*F7&gt;=0,C7,B7)</f>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="9"/>
+        <v>-4.43</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="C8">
-        <f>(A8+B8)/2</f>
-        <v>1.15625</v>
-      </c>
-      <c r="D8">
-        <f>4.5*A8^5-2.23*A8^3-6.35</f>
-        <v>-1.4159906005859373</v>
-      </c>
-      <c r="E8">
-        <f>4.5*B8^5-2.23*B8^3-6.35</f>
-        <v>0.54199407577514691</v>
-      </c>
-      <c r="F8">
-        <f>4.5*C8^5-2.23*C8^3-6.35</f>
-        <v>-0.49740002334117861</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.203125</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.28449313163757139</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="8"/>
-        <v>belum</v>
+        <v>6.5359477124183009E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" ref="A9:A15" si="9">IF(D8*F8&gt;=0,C8,A8)</f>
-        <v>1.15625</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B15" si="10">IF(E8*F8&gt;=0,C8,B8)</f>
-        <v>1.1875</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C15" si="11">(A9+B9)/2</f>
-        <v>1.171875</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D15" si="12">4.5*A9^5-2.23*A9^3-6.35</f>
-        <v>-0.49740002334117861</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E15" si="13">4.5*B9^5-2.23*B9^3-6.35</f>
-        <v>0.54199407577514691</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F15" si="14">4.5*C9^5-2.23*C9^3-6.35</f>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H9" t="str">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="9"/>
+        <v>108.61000000000001</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.19921875</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.203125</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="6"/>
+        <v>9.7038092205740334E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.22806667211465737</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="8"/>
-        <v>belum</v>
+        <v>3.2573289902280132E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="9"/>
-        <v>1.15625</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="11"/>
-        <v>1.1640625</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="12"/>
-        <v>-0.49740002334117861</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="14"/>
-        <v>-0.24929267162166013</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H10" t="str">
+        <v>941.89</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.197265625</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.19921875</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2252353179506699E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="7"/>
+        <v>9.7038092205740334E-2</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="8"/>
-        <v>belum</v>
+        <v>1.6313213703099511E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8">
         <f t="shared" si="9"/>
-        <v>1.1640625</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="11"/>
-        <v>1.16796875</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="12"/>
-        <v>-0.24929267162166013</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="14"/>
-        <v>-0.12235668567775004</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="H11" t="str">
+        <v>4100.53</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1953125</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1962890625</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.197265625</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>-3.2051106754515502E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="6"/>
+        <v>4.0498235149399875E-5</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="7"/>
+        <v>3.2252353179506699E-2</v>
+      </c>
+      <c r="L15" s="7">
         <f t="shared" si="8"/>
-        <v>belum</v>
+        <v>8.1632653061224493E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="9"/>
-        <v>1.16796875</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="11"/>
-        <v>1.169921875</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="12"/>
-        <v>-0.12235668567775004</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="14"/>
-        <v>-5.8158915476910877E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="9"/>
-        <v>1.169921875</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="11"/>
-        <v>1.1708984375</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="12"/>
-        <v>-5.8158915476910877E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="14"/>
-        <v>-2.5876428590860812E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <f t="shared" si="9"/>
-        <v>1.1708984375</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="11"/>
-        <v>1.17138671875</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="12"/>
-        <v>-2.5876428590860812E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="14"/>
-        <v>-9.6891395457241458E-3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f t="shared" si="9"/>
-        <v>1.17138671875</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="10"/>
-        <v>1.171875</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="11"/>
-        <v>1.171630859375</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="12"/>
-        <v>-9.6891395457241458E-3</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="13"/>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="14"/>
-        <v>-1.5839654486953236E-3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <f>IF(D15*F15&gt;=0,C15,A15)</f>
-        <v>1.171630859375</v>
-      </c>
-      <c r="B16">
-        <f>IF(E15*F15&gt;=0,C15,B15)</f>
-        <v>1.171875</v>
-      </c>
-      <c r="C16">
-        <f>(A16+B16)/2</f>
-        <v>1.1717529296875</v>
-      </c>
-      <c r="D16">
-        <f>4.5*A16^5-2.23*A16^3-6.35</f>
-        <v>-1.5839654486953236E-3</v>
-      </c>
-      <c r="E16">
-        <f>4.5*B16^5-2.23*B16^3-6.35</f>
-        <v>6.5289019607011056E-3</v>
-      </c>
-      <c r="F16">
-        <f>4.5*C16^5-2.23*C16^3-6.35</f>
-        <v>2.4715062670184196E-3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>2.44140625E-4</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <f t="shared" ref="A17:A18" si="15">IF(D16*F16&gt;=0,C16,A16)</f>
-        <v>1.171630859375</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:B18" si="16">IF(E16*F16&gt;=0,C16,B16)</f>
-        <v>1.1717529296875</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C18" si="17">(A17+B17)/2</f>
-        <v>1.17169189453125</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D18" si="18">4.5*A17^5-2.23*A17^3-6.35</f>
-        <v>-1.5839654486953236E-3</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E18" si="19">4.5*B17^5-2.23*B17^3-6.35</f>
-        <v>2.4715062670184196E-3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F18" si="20">4.5*C17^5-2.23*C17^3-6.35</f>
-        <v>4.4352995253760241E-4</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1.220703125E-4</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="8"/>
-        <v>belum</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <f t="shared" si="15"/>
-        <v>1.171630859375</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="16"/>
-        <v>1.17169189453125</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="17"/>
-        <v>1.171661376953125</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="18"/>
-        <v>-1.5839654486953236E-3</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="19"/>
-        <v>4.4352995253760241E-4</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="20"/>
-        <v>-5.702778571592404E-4</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <f>IF(D18*F18&gt;=0,C18,A18)</f>
-        <v>1.171661376953125</v>
-      </c>
-      <c r="B19">
-        <f>IF(E18*F18&gt;=0,C18,B18)</f>
-        <v>1.17169189453125</v>
-      </c>
-      <c r="C19">
-        <f>(A19+B19)/2</f>
-        <v>1.1716766357421875</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:F20" si="21">4.5*A19^5-2.23*A19^3-6.35</f>
-        <v>-5.702778571592404E-4</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="21"/>
-        <v>4.4352995253760241E-4</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="21"/>
-        <v>-6.3388980212408796E-5</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>3.0517578125E-5</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <f>IF(D19*F19&gt;=0,C19,A19)</f>
-        <v>1.1716766357421875</v>
-      </c>
-      <c r="B20">
-        <f>IF(E19*F19&gt;=0,C19,B19)</f>
-        <v>1.17169189453125</v>
-      </c>
-      <c r="C20">
-        <f>(A20+B20)/2</f>
-        <v>1.1716842651367187</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="21"/>
-        <v>-6.3388980212408796E-5</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="21"/>
-        <v>4.4352995253760241E-4</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="21"/>
-        <v>1.9006672910748534E-4</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1.52587890625E-5</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <f t="shared" ref="A21:A22" si="22">IF(D20*F20&gt;=0,C20,A20)</f>
-        <v>1.1716766357421875</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:B22" si="23">IF(E20*F20&gt;=0,C20,B20)</f>
-        <v>1.1716842651367187</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:C22" si="24">(A21+B21)/2</f>
-        <v>1.1716804504394531</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D22" si="25">4.5*A21^5-2.23*A21^3-6.35</f>
-        <v>-6.3388980212408796E-5</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21:E22" si="26">4.5*B21^5-2.23*B21^3-6.35</f>
-        <v>1.9006672910748534E-4</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F22" si="27">4.5*C21^5-2.23*C21^3-6.35</f>
-        <v>6.3337935191754013E-5</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>7.62939453125E-6</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <f t="shared" si="22"/>
-        <v>1.1716766357421875</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="23"/>
-        <v>1.1716804504394531</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="24"/>
-        <v>1.1716785430908203</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="25"/>
-        <v>-6.3388980212408796E-5</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="26"/>
-        <v>6.3337935191754013E-5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="27"/>
-        <v>-2.5757321608921302E-8</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>3.814697265625E-6</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <f>IF(D22*F22&gt;=0,C22,A22)</f>
-        <v>1.1716785430908203</v>
-      </c>
-      <c r="B23">
-        <f>IF(E22*F22&gt;=0,C22,B22)</f>
-        <v>1.1716804504394531</v>
-      </c>
-      <c r="C23">
-        <f>(A23+B23)/2</f>
-        <v>1.1716794967651367</v>
-      </c>
-      <c r="D23">
-        <f>4.5*A23^5-2.23*A23^3-6.35</f>
-        <v>-2.5757321608921302E-8</v>
-      </c>
-      <c r="E23">
-        <f>4.5*B23^5-2.23*B23^3-6.35</f>
-        <v>6.3337935191754013E-5</v>
-      </c>
-      <c r="F23">
-        <f>4.5*C23^5-2.23*C23^3-6.35</f>
-        <v>3.1656030232696253E-5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1.9073486328125E-6</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="8"/>
-        <v>akar</v>
+        <v>12683.650000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tugas1/Metnum_Irgiyansyah_T1.xlsx
+++ b/Tugas1/Metnum_Irgiyansyah_T1.xlsx
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,15 +134,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,12 +221,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -224,8 +311,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -242,7 +329,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -251,86 +338,104 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>-12696.350000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4113.2300000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-954.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-121.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-6.35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>-4.43</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>108.61000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>941.89</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>4100.53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>12683.650000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31782.370000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68977.81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134839.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>243421.33000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -341,17 +446,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-52899424"/>
-        <c:axId val="-52898880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-52899424"/>
+        <c:axId val="932946176"/>
+        <c:axId val="932941280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="932946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -361,8 +479,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -389,15 +507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52898880"/>
+        <c:crossAx val="932941280"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-52898880"/>
+        <c:axId val="932941280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,8 +538,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -448,9 +569,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52899424"/>
+        <c:crossAx val="932946176"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -663,11 +784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-52893984"/>
-        <c:axId val="-52897792"/>
+        <c:axId val="931347824"/>
+        <c:axId val="931347280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-52893984"/>
+        <c:axId val="931347824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52897792"/>
+        <c:crossAx val="931347280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-52897792"/>
+        <c:axId val="931347280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52893984"/>
+        <c:crossAx val="931347824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -984,11 +1105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-52892896"/>
-        <c:axId val="-116635120"/>
+        <c:axId val="931346192"/>
+        <c:axId val="931344560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-52892896"/>
+        <c:axId val="931346192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-116635120"/>
+        <c:crossAx val="931344560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-116635120"/>
+        <c:axId val="931344560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52892896"/>
+        <c:crossAx val="931346192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,11 +1426,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1966988816"/>
-        <c:axId val="-1966978480"/>
+        <c:axId val="931345104"/>
+        <c:axId val="931348368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1966988816"/>
+        <c:axId val="931345104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1966978480"/>
+        <c:crossAx val="931348368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1360,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1966978480"/>
+        <c:axId val="931348368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1966988816"/>
+        <c:crossAx val="931345104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,11 +1747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1966983376"/>
-        <c:axId val="-1966984464"/>
+        <c:axId val="931341296"/>
+        <c:axId val="931342384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1966983376"/>
+        <c:axId val="931341296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1966984464"/>
+        <c:crossAx val="931342384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1966984464"/>
+        <c:axId val="931342384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1966983376"/>
+        <c:crossAx val="931341296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1958,11 +2079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-92267248"/>
-        <c:axId val="-1966981200"/>
+        <c:axId val="931342928"/>
+        <c:axId val="931344016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-92267248"/>
+        <c:axId val="931342928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,12 +2126,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1966981200"/>
+        <c:crossAx val="931344016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1966981200"/>
+        <c:axId val="931344016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92267248"/>
+        <c:crossAx val="931342928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2383,7 +2504,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2410,8 +2531,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2491,11 +2612,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2506,11 +2622,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2522,7 +2633,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2542,9 +2653,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2557,10 +2665,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2600,22 +2708,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2720,8 +2829,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2853,19 +2962,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2879,6 +2989,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5482,7 +5603,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5938,120 +6059,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B2">
         <f>4.15*A2^5-2.23*A2^3-6.35</f>
-        <v>-6.35</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>-12696.350000000002</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B2:B11" si="0">4.15*A3^5-2.23*A3^3-6.35</f>
-        <v>-4.43</v>
+      <c r="A3" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B12" si="0">4.15*A3^5-2.23*A3^3-6.35</f>
+        <v>-4113.2300000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>108.61000000000001</v>
+        <v>-954.59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" s="5">
+        <v>-2</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>941.89</v>
+        <v>-121.31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>4100.53</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" s="5">
+        <v>0</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12683.650000000001</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>31782.370000000003</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>68977.81</v>
+        <v>108.61000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>134839.09</v>
+        <v>941.89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" s="5">
+        <v>4</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>243421.33000000002</v>
+        <v>4100.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>12683.650000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6069,33 +6199,33 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f t="shared" ref="B2:B11" si="0">4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-2.6345134999999975</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1.2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f t="shared" si="0"/>
         <v>0.12308800000000009</v>
       </c>
@@ -6189,10 +6319,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6269,19 +6399,19 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1.19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>-0.20453688141499882</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>1.2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>0.12308800000000009</v>
       </c>
@@ -6297,16 +6427,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6356,19 +6486,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1.196</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>-9.4711315498496873E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1.1970000000000001</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>2.3478804705895584E-2</v>
       </c>
@@ -6411,16 +6541,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6443,10 +6573,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1.1962999999999999</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>4.0060455669177486E-4</v>
       </c>
@@ -6525,8 +6655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6537,42 +6667,43 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6584,71 +6715,71 @@
         <f>4.15*A6^5-2.23*A6^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="12">
         <f>(F6+H6)/2</f>
         <v>1.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="12">
         <f>4.15*F6^5-2.23*F6^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6:K6" si="0">4.15*G6^5-2.23*G6^3-6.35</f>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6" si="0">4.15*G6^5-2.23*G6^3-6.35</f>
         <v>17.637812500000003</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="12">
         <f>4.15*H6^5-2.23*H6^3-6.35</f>
         <v>108.61000000000001</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>-4</v>
       </c>
-      <c r="B7" s="8">
-        <f t="shared" ref="B7:B15" si="1">4.15*A7^5-2.23*A7^3-6.35</f>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B8" si="1">4.15*A7^5-2.23*A7^3-6.35</f>
         <v>-4113.2300000000005</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="8">
         <f>IF(I6*J6&lt;0,F6,G6)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <f>(F7+H7)/2</f>
         <v>1.25</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="8">
         <f>IF(J6*K6&lt;0,H6,G6)</f>
         <v>1.5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <f>4.15*F7^5-2.23*F7^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="8">
         <f>4.15*G7^5-2.23*G7^3-6.35</f>
         <v>1.9593261718750021</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="8">
         <f>4.15*H7^5-2.23*H7^3-6.35</f>
         <v>17.637812500000003</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <f>ABS((G7-G6)/G7)</f>
         <v>0.2</v>
       </c>
@@ -6662,75 +6793,75 @@
         <v>-954.59</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <f t="shared" ref="F8:F15" si="2">IF(I7*J7&lt;0,F7,G7)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <f t="shared" ref="G8:G15" si="3">(F8+H8)/2</f>
         <v>1.125</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <f t="shared" ref="H8:H15" si="4">IF(J7*K7&lt;0,H7,G7)</f>
         <v>1.25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="8">
         <f t="shared" ref="I8:I15" si="5">4.15*F8^5-2.23*F8^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="8">
         <f t="shared" ref="J8:J15" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
         <v>-2.04670196533203</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="8">
         <f t="shared" ref="K8:K15" si="7">4.15*H8^5-2.23*H8^3-6.35</f>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <f t="shared" ref="L8:L15" si="8">ABS((G8-G7)/G8)</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>-2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <f t="shared" ref="B9:B16" si="9">4.15*A9^5-2.23*A9^3-6.35</f>
         <v>-121.31</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <f t="shared" si="3"/>
         <v>1.1875</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="8">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="8">
         <f t="shared" si="5"/>
         <v>-2.04670196533203</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="8">
         <f t="shared" si="6"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <f t="shared" si="7"/>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <f t="shared" si="8"/>
         <v>5.2631578947368418E-2</v>
       </c>
@@ -6744,157 +6875,157 @@
         <v>-8.27</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <f t="shared" si="3"/>
         <v>1.21875</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="8">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="8">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="8">
         <f t="shared" si="6"/>
         <v>0.77198921948671462</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="8">
         <f t="shared" si="7"/>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <f t="shared" si="8"/>
         <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <f t="shared" si="9"/>
         <v>-6.35</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <v>6</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <f t="shared" si="3"/>
         <v>1.203125</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="8">
         <f t="shared" si="4"/>
         <v>1.21875</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="8">
         <f t="shared" si="6"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <f t="shared" si="7"/>
         <v>0.77198921948671462</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <f t="shared" si="8"/>
         <v>1.2987012987012988E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <f t="shared" si="9"/>
         <v>-4.43</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="8">
         <v>7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <f t="shared" si="3"/>
         <v>1.1953125</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="8">
         <f t="shared" si="4"/>
         <v>1.203125</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="8">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="8">
         <f t="shared" si="6"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="8">
         <f t="shared" si="7"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <f t="shared" si="8"/>
         <v>6.5359477124183009E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <f t="shared" si="9"/>
         <v>108.61000000000001</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <f t="shared" si="3"/>
         <v>1.19921875</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <f t="shared" si="4"/>
         <v>1.203125</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8">
         <f t="shared" si="6"/>
         <v>9.7038092205740334E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="8">
         <f t="shared" si="7"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <f t="shared" si="8"/>
         <v>3.2573289902280132E-3</v>
       </c>
@@ -6908,75 +7039,75 @@
         <v>941.89</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="E14" s="8">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="8">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="8">
         <f t="shared" si="3"/>
         <v>1.197265625</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="8">
         <f t="shared" si="4"/>
         <v>1.19921875</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="8">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="8">
         <f t="shared" si="6"/>
         <v>3.2252353179506699E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="8">
         <f t="shared" si="7"/>
         <v>9.7038092205740334E-2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <f t="shared" si="8"/>
         <v>1.6313213703099511E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <f t="shared" si="9"/>
         <v>4100.53</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <f t="shared" si="3"/>
         <v>1.1962890625</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="9">
         <f t="shared" si="4"/>
         <v>1.197265625</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="9">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="9">
         <f t="shared" si="6"/>
         <v>4.0498235149399875E-5</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="9">
         <f t="shared" si="7"/>
         <v>3.2252353179506699E-2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="11">
         <f t="shared" si="8"/>
         <v>8.1632653061224493E-4</v>
       </c>

--- a/Tugas1/Metnum_Irgiyansyah_T1.xlsx
+++ b/Tugas1/Metnum_Irgiyansyah_T1.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Zoom 2" sheetId="3" r:id="rId3"/>
     <sheet name="Zoom 3" sheetId="4" r:id="rId4"/>
     <sheet name="Zoom 4" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Biseksi" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,9 +231,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +250,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,11 +458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="932946176"/>
-        <c:axId val="932941280"/>
+        <c:axId val="2139503344"/>
+        <c:axId val="2139505520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="932946176"/>
+        <c:axId val="2139503344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,12 +519,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932941280"/>
+        <c:crossAx val="2139505520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="932941280"/>
+        <c:axId val="2139505520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932946176"/>
+        <c:crossAx val="2139503344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,11 +796,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="931347824"/>
-        <c:axId val="931347280"/>
+        <c:axId val="2139495728"/>
+        <c:axId val="2139496816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="931347824"/>
+        <c:axId val="2139495728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931347280"/>
+        <c:crossAx val="2139496816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931347280"/>
+        <c:axId val="2139496816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931347824"/>
+        <c:crossAx val="2139495728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1105,11 +1117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="931346192"/>
-        <c:axId val="931344560"/>
+        <c:axId val="2139500080"/>
+        <c:axId val="2139500624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="931346192"/>
+        <c:axId val="2139500080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931344560"/>
+        <c:crossAx val="2139500624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931344560"/>
+        <c:axId val="2139500624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931346192"/>
+        <c:crossAx val="2139500080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,11 +1438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="931345104"/>
-        <c:axId val="931348368"/>
+        <c:axId val="2139114832"/>
+        <c:axId val="2139114288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="931345104"/>
+        <c:axId val="2139114832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931348368"/>
+        <c:crossAx val="2139114288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931348368"/>
+        <c:axId val="2139114288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931345104"/>
+        <c:crossAx val="2139114832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1747,11 +1759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="931341296"/>
-        <c:axId val="931342384"/>
+        <c:axId val="231587712"/>
+        <c:axId val="231590432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="931341296"/>
+        <c:axId val="231587712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931342384"/>
+        <c:crossAx val="231590432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="931342384"/>
+        <c:axId val="231590432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931341296"/>
+        <c:crossAx val="231587712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1958,7 +1970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$5</c:f>
+              <c:f>Biseksi!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1993,7 +2005,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$A$6:$A$15</c:f>
+              <c:f>Biseksi!$A$6:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2032,7 +2044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$6:$B$15</c:f>
+              <c:f>Biseksi!$B$6:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2079,11 +2091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="931342928"/>
-        <c:axId val="931344016"/>
+        <c:axId val="231593696"/>
+        <c:axId val="231594784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="931342928"/>
+        <c:axId val="231593696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,12 +2138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931344016"/>
+        <c:crossAx val="231594784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="931344016"/>
+        <c:axId val="231594784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="931342928"/>
+        <c:crossAx val="231593696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5765,14 +5777,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31190</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:colOff>338978</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -6062,7 +6074,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6074,11 +6086,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -6088,11 +6100,11 @@
         <f>4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -6656,7 +6668,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6667,12 +6679,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6682,30 +6694,31 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -6715,32 +6728,32 @@
         <f>4.15*A6^5-2.23*A6^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>(F6+H6)/2</f>
         <v>1.5</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>4.15*F6^5-2.23*F6^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f t="shared" ref="J6" si="0">4.15*G6^5-2.23*G6^3-6.35</f>
         <v>17.637812500000003</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <f>4.15*H6^5-2.23*H6^3-6.35</f>
         <v>108.61000000000001</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -6752,34 +6765,34 @@
         <v>-4113.2300000000005</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f>IF(I6*J6&lt;0,F6,G6)</f>
         <v>1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f>(F7+H7)/2</f>
         <v>1.25</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f>IF(J6*K6&lt;0,H6,G6)</f>
         <v>1.5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f>4.15*F7^5-2.23*F7^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f>4.15*G7^5-2.23*G7^3-6.35</f>
         <v>1.9593261718750021</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f>4.15*H7^5-2.23*H7^3-6.35</f>
         <v>17.637812500000003</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f>ABS((G7-G6)/G7)</f>
         <v>0.2</v>
       </c>
@@ -6793,34 +6806,34 @@
         <v>-954.59</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" ref="F8:F15" si="2">IF(I7*J7&lt;0,F7,G7)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" ref="G8:G15" si="3">(F8+H8)/2</f>
         <v>1.125</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" ref="H8:H15" si="4">IF(J7*K7&lt;0,H7,G7)</f>
         <v>1.25</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" ref="I8:I15" si="5">4.15*F8^5-2.23*F8^3-6.35</f>
         <v>-4.43</v>
       </c>
-      <c r="J8" s="8">
-        <f t="shared" ref="J8:J15" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
+      <c r="J8" s="7">
+        <f t="shared" ref="J8:J16" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
         <v>-2.04670196533203</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" ref="K8:K15" si="7">4.15*H8^5-2.23*H8^3-6.35</f>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" ref="L8:L15" si="8">ABS((G8-G7)/G8)</f>
         <v>0.1111111111111111</v>
       </c>
@@ -6834,34 +6847,34 @@
         <v>-121.31</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
         <v>1.1875</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f t="shared" si="5"/>
         <v>-2.04670196533203</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" si="6"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="7"/>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="8"/>
         <v>5.2631578947368418E-2</v>
       </c>
@@ -6875,34 +6888,34 @@
         <v>-8.27</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="3"/>
         <v>1.21875</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="6"/>
         <v>0.77198921948671462</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="7"/>
         <v>1.9593261718750021</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="8"/>
         <v>2.564102564102564E-2</v>
       </c>
@@ -6916,34 +6929,34 @@
         <v>-6.35</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>6</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" si="3"/>
         <v>1.203125</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="4"/>
         <v>1.21875</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="6"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="7"/>
         <v>0.77198921948671462</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="8"/>
         <v>1.2987012987012988E-2</v>
       </c>
@@ -6957,34 +6970,34 @@
         <v>-4.43</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>1.1875</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="3"/>
         <v>1.1953125</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="4"/>
         <v>1.203125</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f t="shared" si="5"/>
         <v>-0.28449313163757139</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="6"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="7"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="8"/>
         <v>6.5359477124183009E-3</v>
       </c>
@@ -6998,34 +7011,34 @@
         <v>108.61000000000001</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
         <v>1.19921875</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="4"/>
         <v>1.203125</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="6"/>
         <v>9.7038092205740334E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" si="7"/>
         <v>0.22806667211465737</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="8"/>
         <v>3.2573289902280132E-3</v>
       </c>
@@ -7039,34 +7052,34 @@
         <v>941.89</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>9</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="3"/>
         <v>1.197265625</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="4"/>
         <v>1.19921875</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="6"/>
         <v>3.2252353179506699E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="7"/>
         <v>9.7038092205740334E-2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="8"/>
         <v>1.6313213703099511E-3</v>
       </c>
@@ -7080,34 +7093,34 @@
         <v>4100.53</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="2"/>
         <v>1.1953125</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="3"/>
         <v>1.1962890625</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="4"/>
         <v>1.197265625</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="5"/>
         <v>-3.2051106754515502E-2</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f t="shared" si="6"/>
         <v>4.0498235149399875E-5</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f t="shared" si="7"/>
         <v>3.2252353179506699E-2</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f t="shared" si="8"/>
         <v>8.1632653061224493E-4</v>
       </c>

--- a/Tugas1/Metnum_Irgiyansyah_T1.xlsx
+++ b/Tugas1/Metnum_Irgiyansyah_T1.xlsx
@@ -252,10 +252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -290,7 +290,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -458,11 +457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139503344"/>
-        <c:axId val="2139505520"/>
+        <c:axId val="-1285293760"/>
+        <c:axId val="-1285289952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139503344"/>
+        <c:axId val="-1285293760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,12 +518,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139505520"/>
+        <c:crossAx val="-1285289952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139505520"/>
+        <c:axId val="-1285289952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139503344"/>
+        <c:crossAx val="-1285293760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -645,7 +644,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -796,11 +794,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2139495728"/>
-        <c:axId val="2139496816"/>
+        <c:axId val="-1285287776"/>
+        <c:axId val="-1285291584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139495728"/>
+        <c:axId val="-1285287776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139496816"/>
+        <c:crossAx val="-1285291584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139496816"/>
+        <c:axId val="-1285291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139495728"/>
+        <c:crossAx val="-1285287776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -966,7 +964,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1117,11 +1114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2139500080"/>
-        <c:axId val="2139500624"/>
+        <c:axId val="-1285289408"/>
+        <c:axId val="-1285296480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139500080"/>
+        <c:axId val="-1285289408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1164,7 +1161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139500624"/>
+        <c:crossAx val="-1285296480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1172,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139500624"/>
+        <c:axId val="-1285296480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,7 +1220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139500080"/>
+        <c:crossAx val="-1285289408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,7 +1284,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1438,11 +1434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2139114832"/>
-        <c:axId val="2139114288"/>
+        <c:axId val="-1285287232"/>
+        <c:axId val="-1285288864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139114832"/>
+        <c:axId val="-1285287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139114288"/>
+        <c:crossAx val="-1285288864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,7 +1489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139114288"/>
+        <c:axId val="-1285288864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139114832"/>
+        <c:crossAx val="-1285287232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,7 +1604,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1759,11 +1754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="231587712"/>
-        <c:axId val="231590432"/>
+        <c:axId val="-1285285600"/>
+        <c:axId val="-1285290496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231587712"/>
+        <c:axId val="-1285285600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231590432"/>
+        <c:crossAx val="-1285290496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +1809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231590432"/>
+        <c:axId val="-1285290496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231587712"/>
+        <c:crossAx val="-1285285600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,11 +2086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231593696"/>
-        <c:axId val="231594784"/>
+        <c:axId val="-1285286688"/>
+        <c:axId val="-1285286144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231593696"/>
+        <c:axId val="-1285286688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,12 +2133,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231594784"/>
+        <c:crossAx val="-1285286144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231594784"/>
+        <c:axId val="-1285286144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231593696"/>
+        <c:crossAx val="-1285286688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6086,11 +6081,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -6100,11 +6095,11 @@
         <f>4.15*A2^5-2.23*A2^3-6.35</f>
         <v>-12696.350000000002</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -6667,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6679,12 +6674,12 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6718,7 +6713,7 @@
       <c r="L5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -6826,7 +6821,7 @@
         <v>-4.43</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" ref="J8:J16" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
+        <f t="shared" ref="J8:J15" si="6">4.15*G8^5-2.23*G8^3-6.35</f>
         <v>-2.04670196533203</v>
       </c>
       <c r="K8" s="7">
